--- a/test_sheets/microsoft/excel-functions-windows.xlsx
+++ b/test_sheets/microsoft/excel-functions-windows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\cheatsheet\test_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WebProjects\cheatsheet\test_sheets\microsoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5635244-C42A-4300-BEB7-D70CC567FAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAB21A7-1E69-459D-93F0-D2B6D9CC1148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2025" windowWidth="16470" windowHeight="15750" xr2:uid="{0DD660C5-C46E-4703-82E5-2E6154677CE2}"/>
+    <workbookView xWindow="53070" yWindow="6810" windowWidth="21600" windowHeight="11295" xr2:uid="{0DD660C5-C46E-4703-82E5-2E6154677CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>Lookup &amp; Reference</t>
   </si>
@@ -236,16 +236,13 @@
     <t>Returns the day of the month corresponding to a date.</t>
   </si>
   <si>
-    <t>Section</t>
-  </si>
-  <si>
-    <t>Command</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Color</t>
+    <t>section</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -643,7 +640,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +660,7 @@
         <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
